--- a/tradept/Excel/Localization/english/W武器护甲作用表_ArmorEffect_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/W武器护甲作用表_ArmorEffect_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1352D802-BAB5-4A12-ABE1-A3896C4AB7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62170D4-251D-4E66-8BE8-8C8F9C9B28B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="1935" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -64,19 +64,19 @@
     <t>Corte</t>
   </si>
   <si>
-    <t>Perforación</t>
-  </si>
-  <si>
-    <t>A distancia</t>
-  </si>
-  <si>
-    <t>Asedio</t>
-  </si>
-  <si>
-    <t>Arcano</t>
-  </si>
-  <si>
     <t>Físico</t>
+  </si>
+  <si>
+    <t>Perfuração</t>
+  </si>
+  <si>
+    <t>À Distância</t>
+  </si>
+  <si>
+    <t>Arcana</t>
+  </si>
+  <si>
+    <t>Cerco</t>
   </si>
 </sst>
 </file>
@@ -195,24 +195,24 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -564,10 +564,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45">
       <c r="A1" s="2" t="s">
@@ -621,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -632,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -643,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -665,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/english/W武器护甲作用表_ArmorEffect_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/W武器护甲作用表_ArmorEffect_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62170D4-251D-4E66-8BE8-8C8F9C9B28B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12A4B9A-BF4B-435B-A0FF-5C7793E6F458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1935" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -61,22 +61,22 @@
     <t>Contundente</t>
   </si>
   <si>
-    <t>Corte</t>
-  </si>
-  <si>
     <t>Físico</t>
   </si>
   <si>
-    <t>Perfuração</t>
-  </si>
-  <si>
-    <t>À Distância</t>
-  </si>
-  <si>
-    <t>Arcana</t>
-  </si>
-  <si>
     <t>Cerco</t>
+  </si>
+  <si>
+    <t>Cortante</t>
+  </si>
+  <si>
+    <t>Perfurante</t>
+  </si>
+  <si>
+    <t>Distância</t>
+  </si>
+  <si>
+    <t>Arcano (Mágico)</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -613,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -624,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -635,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -646,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -657,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/english/W武器护甲作用表_ArmorEffect_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/W武器护甲作用表_ArmorEffect_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12A4B9A-BF4B-435B-A0FF-5C7793E6F458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA95176-2F7A-4BA1-82F2-E37C2A209EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,28 +55,28 @@
     <t>物理</t>
   </si>
   <si>
-    <t>Desarmado</t>
-  </si>
-  <si>
-    <t>Contundente</t>
-  </si>
-  <si>
-    <t>Físico</t>
-  </si>
-  <si>
-    <t>Cerco</t>
-  </si>
-  <si>
-    <t>Cortante</t>
-  </si>
-  <si>
-    <t>Perfurante</t>
-  </si>
-  <si>
-    <t>Distância</t>
-  </si>
-  <si>
-    <t>Arcano (Mágico)</t>
+    <t xml:space="preserve">Arcano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distância </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfurante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contundente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarmado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Físico </t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -602,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -624,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -635,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -646,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -657,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
